--- a/database/sql.xlsx
+++ b/database/sql.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\소프트웨어공학\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\node\mYting_API\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB81617-5B3A-431B-93D4-CB54EE6143AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4459F68B-4419-49E0-B256-A7E34EA3730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{067AA166-D7CA-4CC3-87B8-7DBD3FDC6D36}"/>
   </bookViews>
@@ -52,16 +52,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>create table StudyMember (
-    StudyID int not null,
-    ParticipantUID int not null,
-    Creator tinyint(1) not null,
-    foreign key (StudyID) references Study(StudyID) on delete cascade,
-    foreign key (ParticipantUID) references UserProfile(uid) on delete cascade
-);</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>create table IdealMBTI (
     ID int not null primary key auto_increment,
     MBTI varchar(20) check (Ideal1 IN('ENTJ', 'ENTP', 'INTJ', 'INTP', 'ESTJ', 'ESFJ', 'ISTJ', 'ISFJ', 'ENFJ', 'ENFP', 'INFJ', 'INFP', 'ESTP', 'ESFP', 'ISTP', 'ISFP')),
@@ -6304,9 +6294,6 @@
   <si>
     <t>SELECT * FROM Study;</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM Study WHERE Studyname = ?;</t>
   </si>
   <si>
     <r>
@@ -6683,6 +6670,20 @@
   </si>
   <si>
     <t>멤버 탈퇴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table StudyMember (
+    StudyID int not null,
+    ParticipantUID int not null,
+    Creator tinyint(1) default 0,
+    foreign key (StudyID) references Study(StudyID) on delete cascade,
+    foreign key (ParticipantUID) references UserProfile(uid) on delete cascade
+);</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Study WHERE Studyname = ?;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6759,8 +6760,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6769,23 +6782,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7221,785 +7219,785 @@
   <dimension ref="B3:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:U43"/>
+      <selection activeCell="B16" sqref="B16:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8023,523 +8021,523 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>4</v>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AG4" s="5" t="s">
-        <v>5</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AG4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -8553,12 +8551,12 @@
     <mergeCell ref="B20:AC20"/>
     <mergeCell ref="B22:AC22"/>
     <mergeCell ref="B24:AC24"/>
+    <mergeCell ref="B12:AC12"/>
     <mergeCell ref="B2:AC2"/>
     <mergeCell ref="B4:AC4"/>
     <mergeCell ref="B6:AC6"/>
     <mergeCell ref="B8:AC8"/>
     <mergeCell ref="B10:AC10"/>
-    <mergeCell ref="B12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8570,186 +8568,186 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423B7981-E41F-4E98-B9C9-2599A2452B2E}">
   <dimension ref="B2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>28</v>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>29</v>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
         <v>33</v>
       </c>
-      <c r="L16" t="s">
+    </row>
+    <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>34</v>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>37</v>
       </c>
-      <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>37</v>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" t="s">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>40</v>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>45</v>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="K37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="K37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
-        <v>53</v>
+      <c r="B40" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
-        <v>54</v>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/database/sql.xlsx
+++ b/database/sql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\node\mYting_API\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4459F68B-4419-49E0-B256-A7E34EA3730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB04C5B6-FF8E-4510-B489-A2A0E9581207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{067AA166-D7CA-4CC3-87B8-7DBD3FDC6D36}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>create table Study (
     StudyID int not null primary key auto_increment,
@@ -6319,10 +6319,6 @@
     </r>
   </si>
   <si>
-    <t>이름으로 스터디 검색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>스터디 전체 검색</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -6684,6 +6680,53 @@
   </si>
   <si>
     <t>SELECT * FROM Study WHERE Studyname = ?;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디 이름으로 스터디 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Study WHERE CreatorID = ?;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT uid FROM User WHERE name = ?;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>스터디 개설자 이름으로 스터디 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름으로 유저 uid 검색</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7480,7 +7523,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -8541,6 +8584,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B12:AC12"/>
+    <mergeCell ref="B2:AC2"/>
+    <mergeCell ref="B4:AC4"/>
+    <mergeCell ref="B6:AC6"/>
+    <mergeCell ref="B8:AC8"/>
+    <mergeCell ref="B10:AC10"/>
     <mergeCell ref="B26:AC26"/>
     <mergeCell ref="B28:AC28"/>
     <mergeCell ref="B30:AC30"/>
@@ -8551,12 +8600,6 @@
     <mergeCell ref="B20:AC20"/>
     <mergeCell ref="B22:AC22"/>
     <mergeCell ref="B24:AC24"/>
-    <mergeCell ref="B12:AC12"/>
-    <mergeCell ref="B2:AC2"/>
-    <mergeCell ref="B4:AC4"/>
-    <mergeCell ref="B6:AC6"/>
-    <mergeCell ref="B8:AC8"/>
-    <mergeCell ref="B10:AC10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8566,10 +8609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423B7981-E41F-4E98-B9C9-2599A2452B2E}">
-  <dimension ref="B2:N41"/>
+  <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8579,7 +8622,7 @@
         <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -8617,15 +8660,15 @@
         <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -8635,15 +8678,15 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="8"/>
     </row>
@@ -8661,93 +8704,119 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/database/sql.xlsx
+++ b/database/sql.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\node\mYting_API\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF360DCC-99EC-44D7-A221-6802A091FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE4B18-0912-4ACA-A448-321E958CD654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 생성 SQL" sheetId="1" r:id="rId1"/>
@@ -6620,20 +6620,6 @@
       </rPr>
       <t xml:space="preserve"> (ISFP, ENTJ, ESTJ, INTJ, ISTJ, ENFJ, ESFJ, INFJ, ESFP, ISFP, ESTP, ENFP, INFP, ISTP, ISFJ, INTP, ENTP);</t>
     </r>
-  </si>
-  <si>
-    <t>create table Study (
-    StudyID int not null primary key auto_increment,
-    CreatorUID int not null,
-    Studyname varchar(255)
-    Starttime varchar(255),
-    Endtime varchar(255),
-    MBTI varchar(255) check (MBTI IN('ENTJ', 'ENTP', 'INTJ', 'INTP', 'ESTJ', 'ESFJ', 'ISTJ', 'ISFJ', 'ENFJ', 'ENFP', 'INFJ', 'INFP', 'ESTP', 'ESFP', 'ISTP', 'ISFP')),
-    Subject varchar(255),
-    Place varchar(255),
-    StudyInfo6 varchar(255),
-    foreign key (CreatorUID) references UserProfile(uid) on delete cascade
-);</t>
   </si>
   <si>
     <t>create table StudyMember (
@@ -6767,6 +6753,20 @@
   </si>
   <si>
     <t>대관장소 DB 등록</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table Study (
+    StudyID int not null primary key auto_increment,
+    CreatorUID int not null,
+    Studyname varchar(30),
+    MBTI varchar(255) check (MBTI IN('ENTJ', 'ENTP', 'INTJ', 'INTP', 'ESTJ', 'ESFJ', 'ISTJ', 'ISFJ', 'ENFJ', 'ENFP', 'INFJ', 'INFP', 'ESTP', 'ESFP', 'ISTP', 'ISFP')),
+    Introduction varchar(200),
+    Rule varchar(400),
+    Place varchar(30),
+    Maximum int,
+    foreign key (CreatorUID) references UserProfile(uid) on delete cascade
+);</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6891,6 +6891,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6905,15 +6914,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7222,7 +7222,9 @@
   </sheetPr>
   <dimension ref="B1:U43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7233,781 +7235,781 @@
     <row r="1" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
     </row>
     <row r="25" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
     </row>
     <row r="26" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
     </row>
     <row r="27" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
     </row>
     <row r="28" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
     </row>
     <row r="29" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
     </row>
     <row r="30" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
     </row>
     <row r="31" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
     </row>
     <row r="32" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
     </row>
     <row r="33" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
     </row>
     <row r="34" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
     </row>
     <row r="35" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
     </row>
     <row r="36" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
     </row>
     <row r="37" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
     </row>
     <row r="38" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
     </row>
     <row r="39" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
     </row>
     <row r="40" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
     </row>
     <row r="41" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
     </row>
     <row r="42" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
     </row>
     <row r="43" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8038,553 +8040,553 @@
   <sheetData>
     <row r="1" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
     </row>
     <row r="3" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
       <c r="AG4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
     </row>
     <row r="7" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
     </row>
     <row r="11" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
     </row>
     <row r="13" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
     </row>
     <row r="15" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
     </row>
     <row r="17" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
     </row>
     <row r="19" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
     </row>
     <row r="21" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
     </row>
     <row r="23" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
     </row>
     <row r="25" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
     </row>
     <row r="27" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
     </row>
     <row r="31" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:AC2"/>
+    <mergeCell ref="B4:AC4"/>
+    <mergeCell ref="B6:AC6"/>
+    <mergeCell ref="B8:AC8"/>
+    <mergeCell ref="B10:AC10"/>
+    <mergeCell ref="B12:AC12"/>
+    <mergeCell ref="B14:AC14"/>
+    <mergeCell ref="B16:AC16"/>
+    <mergeCell ref="B18:AC18"/>
+    <mergeCell ref="B20:AC20"/>
     <mergeCell ref="B32:AC32"/>
     <mergeCell ref="B22:AC22"/>
     <mergeCell ref="B24:AC24"/>
     <mergeCell ref="B26:AC26"/>
     <mergeCell ref="B28:AC28"/>
     <mergeCell ref="B30:AC30"/>
-    <mergeCell ref="B12:AC12"/>
-    <mergeCell ref="B14:AC14"/>
-    <mergeCell ref="B16:AC16"/>
-    <mergeCell ref="B18:AC18"/>
-    <mergeCell ref="B20:AC20"/>
-    <mergeCell ref="B2:AC2"/>
-    <mergeCell ref="B4:AC4"/>
-    <mergeCell ref="B6:AC6"/>
-    <mergeCell ref="B8:AC8"/>
-    <mergeCell ref="B10:AC10"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8598,8 +8600,8 @@
   </sheetPr>
   <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8682,22 +8684,22 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8826,29 +8828,29 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H49" t="s">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="12" t="s">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
